--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_1_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_1_.xlsx
@@ -435,10 +435,10 @@
         <v>1.379316785363834</v>
       </c>
       <c r="E1" t="n">
-        <v>0.188939888900502</v>
+        <v>1.381856437894394</v>
       </c>
       <c r="F1" t="n">
-        <v>-5.725153418012496e-08</v>
+        <v>-1.570796384046431</v>
       </c>
       <c r="G1" t="n">
         <v>-1.367909888287239</v>
@@ -458,10 +458,10 @@
         <v>1.380518500463224</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1878999627744357</v>
+        <v>1.382896364020461</v>
       </c>
       <c r="F2" t="n">
-        <v>-5.762896626571035e-08</v>
+        <v>-1.570796384423863</v>
       </c>
       <c r="G2" t="n">
         <v>-1.322298649847111</v>
@@ -481,10 +481,10 @@
         <v>1.385902980825687</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1832404042758736</v>
+        <v>1.387555922519023</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.932011237774759e-08</v>
+        <v>-1.570796386115009</v>
       </c>
       <c r="G3" t="n">
         <v>-1.117930062140237</v>
@@ -504,10 +504,10 @@
         <v>1.393478433468806</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1766848478679089</v>
+        <v>1.394111478926988</v>
       </c>
       <c r="F4" t="n">
-        <v>-6.169939448241735e-08</v>
+        <v>-1.570796388494291</v>
       </c>
       <c r="G4" t="n">
         <v>-0.8304028629126882</v>
@@ -527,10 +527,10 @@
         <v>1.398862913831269</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1720252893693467</v>
+        <v>1.39877103742555</v>
       </c>
       <c r="F5" t="n">
-        <v>-6.339054059445459e-08</v>
+        <v>-1.570796390185437</v>
       </c>
       <c r="G5" t="n">
         <v>-0.6260342752058142</v>
@@ -550,10 +550,10 @@
         <v>1.40006462893066</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1709853632432805</v>
+        <v>1.399810963551616</v>
       </c>
       <c r="F6" t="n">
-        <v>-6.376797268003997e-08</v>
+        <v>-1.570796390562869</v>
       </c>
       <c r="G6" t="n">
         <v>-0.5804230367656862</v>

--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_1_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_1_.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,19 +426,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>-0.2028864896758006</v>
+        <v>0.2028864896758006</v>
       </c>
       <c r="C1" t="n">
-        <v>1.56825683117444</v>
+        <v>0.002539495620456482</v>
       </c>
       <c r="D1" t="n">
-        <v>1.379316785363834</v>
+        <v>-1.379316785363834</v>
       </c>
       <c r="E1" t="n">
-        <v>1.381856437894394</v>
+        <v>0.188939888900502</v>
       </c>
       <c r="F1" t="n">
-        <v>-1.570796384046431</v>
+        <v>1.570796384046431</v>
       </c>
       <c r="G1" t="n">
         <v>-1.367909888287239</v>
@@ -446,116 +446,369 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.221347107536837</v>
+        <v>0.2075129133157847</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.2484977296296271</v>
+        <v>0.2046333296544263</v>
       </c>
       <c r="C2" t="n">
-        <v>1.568418617675491</v>
+        <v>0.002533299447576215</v>
       </c>
       <c r="D2" t="n">
-        <v>1.380518500463224</v>
+        <v>-1.379362809194377</v>
       </c>
       <c r="E2" t="n">
-        <v>1.382896364020461</v>
+        <v>0.1889000613375225</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.570796384423863</v>
+        <v>1.570796384060886</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.322298649847111</v>
+        <v>-1.366163048366586</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.4426942150736741</v>
+        <v>0.4150258266315694</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.4528663241188721</v>
+        <v>0.215527422831531</v>
       </c>
       <c r="C3" t="n">
-        <v>1.569143528461966</v>
+        <v>0.002494657279132034</v>
       </c>
       <c r="D3" t="n">
-        <v>1.385902980825687</v>
+        <v>-1.379649834854683</v>
       </c>
       <c r="E3" t="n">
-        <v>1.387555922519023</v>
+        <v>0.1886516784361557</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.570796386115009</v>
+        <v>1.570796384151034</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.117930062140237</v>
+        <v>-1.355268955551023</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.6640413226105111</v>
+        <v>0.6225387399473542</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.7403935328885739</v>
+        <v>0.2412914350012368</v>
       </c>
       <c r="C4" t="n">
-        <v>1.570163409112236</v>
+        <v>0.002403270388835187</v>
       </c>
       <c r="D4" t="n">
-        <v>1.393478433468806</v>
+        <v>-1.380328636888492</v>
       </c>
       <c r="E4" t="n">
-        <v>1.394111478926988</v>
+        <v>0.1880642646891343</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.570796388494291</v>
+        <v>1.570796384364231</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.8304028629126882</v>
+        <v>-1.329504944236346</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8853884301473481</v>
+        <v>0.8300516532631389</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.9447621273778194</v>
+        <v>0.2844036859956439</v>
       </c>
       <c r="C5" t="n">
-        <v>1.570888319898712</v>
+        <v>0.00225034798971023</v>
       </c>
       <c r="D5" t="n">
-        <v>1.398862913831269</v>
+        <v>-1.381464511358056</v>
       </c>
       <c r="E5" t="n">
-        <v>1.39877103742555</v>
+        <v>0.1870813149555161</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.570796390185437</v>
+        <v>1.570796384720984</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.6260342752058142</v>
+        <v>-1.286392694672704</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.106735537684185</v>
+        <v>1.037564566578924</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.9903733673316449</v>
+        <v>0.3446388740118342</v>
       </c>
       <c r="C6" t="n">
-        <v>1.571050106399762</v>
+        <v>0.002036689244209476</v>
       </c>
       <c r="D6" t="n">
-        <v>1.40006462893066</v>
+        <v>-1.383051522257715</v>
       </c>
       <c r="E6" t="n">
-        <v>1.399810963551616</v>
+        <v>0.1857079660662958</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.570796390562869</v>
+        <v>1.570796385219429</v>
       </c>
       <c r="G6" t="n">
+        <v>-1.226157508655536</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1.245077479894708</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4196087999388747</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.001770765274327443</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1.385026747927482</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1839986684300178</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.570796385839804</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1.151187585216519</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.452590393210493</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5053030916848213</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.001466801171715305</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-1.387284527466625</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1820448576383891</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.570796386548922</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-1.065493296314505</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.660103306526278</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5966299285037232</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.001142858007795339</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-1.389690707147247</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1799626260718912</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.57079638730465</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.9741664625264626</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.867616219842062</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6879567653226248</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0008189148438753735</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-1.392096886827868</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1778803945053933</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.570796388060378</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.8828396287384205</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2.075129133157847</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7736510570685715</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0005149507412632363</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-1.394354666367011</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.1759265837137646</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.570796388769496</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.7971453398364065</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2.282642046473632</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8486209829956121</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0002490267713812027</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-1.396329892036778</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.1742172860774866</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.570796389389871</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.7221754163973895</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2.490154959789417</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.908856171011802</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.536802588044886e-05</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-1.397916902936438</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.1728439371882663</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.570796389888316</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.661940230380222</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2.697667873105202</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9519684220062091</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.0001175543732445084</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-1.399052777406001</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1718609874546481</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.570796390245069</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-0.6188279808165791</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2.905180786420986</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9777324341759148</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.0002089412635413557</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-1.39973157943981</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.1712735737076268</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.570796390458266</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.5930639695019023</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3.112693699736771</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9886265273530191</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.0002475834319855381</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-1.400018605100116</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.1710251908062599</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.570796390548414</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.5821698766863396</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3.320206613052556</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9903733673316449</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.0002537796048658041</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-1.40006462893066</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.1709853632432805</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.570796390562869</v>
+      </c>
+      <c r="G17" t="n">
         <v>-0.5804230367656862</v>
       </c>
     </row>

--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_1_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_1_.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,390 +426,459 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>0.2028864896758006</v>
+        <v>0.6441823756675031</v>
       </c>
       <c r="C1" t="n">
-        <v>0.002539495620456482</v>
+        <v>2.608056692653126</v>
       </c>
       <c r="D1" t="n">
-        <v>-1.379316785363834</v>
+        <v>2.342240967088471</v>
       </c>
       <c r="E1" t="n">
-        <v>0.188939888900502</v>
+        <v>-2.17341058468571</v>
       </c>
       <c r="F1" t="n">
-        <v>1.570796384046431</v>
+        <v>0.532692748286109</v>
       </c>
       <c r="G1" t="n">
-        <v>-1.367909888287239</v>
+        <v>0.05170533914644079</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2075129133157847</v>
+        <v>0.2090072521205203</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2046333296544263</v>
+        <v>0.6399325845983449</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002533299447576215</v>
+        <v>2.606089619050177</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.379362809194377</v>
+        <v>2.341773620732062</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1889000613375225</v>
+        <v>-2.173284428513711</v>
       </c>
       <c r="F2" t="n">
-        <v>1.570796384060886</v>
+        <v>0.5308638612608636</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.366163048366586</v>
+        <v>0.0502462934317227</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.4150258266315694</v>
+        <v>0.4180145042410405</v>
       </c>
       <c r="B3" t="n">
-        <v>0.215527422831531</v>
+        <v>0.6129092208529713</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002494657279132034</v>
+        <v>2.593581487562919</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.379649834854683</v>
+        <v>2.338801881562111</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1886516784361557</v>
+        <v>-2.172482232812984</v>
       </c>
       <c r="F3" t="n">
-        <v>1.570796384151034</v>
+        <v>0.519234423830145</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.355268955551023</v>
+        <v>0.04096858485068285</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.6225387399473542</v>
+        <v>0.6270217563615608</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2412914350012368</v>
+        <v>0.5474195704864268</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002403270388835187</v>
+        <v>2.563268712086198</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.380328636888492</v>
+        <v>2.331600033522231</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1880642646891343</v>
+        <v>-2.170538155219196</v>
       </c>
       <c r="F4" t="n">
-        <v>1.570796384364231</v>
+        <v>0.4910511155464844</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.329504944236346</v>
+        <v>0.01848456336098185</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8300516532631389</v>
+        <v>0.8360290084820811</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2844036859956439</v>
+        <v>0.4346604037247124</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00225034798971023</v>
+        <v>2.511076597975658</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.381464511358056</v>
+        <v>2.31919999199542</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1870813149555161</v>
+        <v>-2.167190869527965</v>
       </c>
       <c r="F5" t="n">
-        <v>1.570796384720984</v>
+        <v>0.4425254883539845</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.286392694672704</v>
+        <v>-0.02022811130503407</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.037564566578924</v>
+        <v>1.045036260602601</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3446388740118342</v>
+        <v>0.2717993770753237</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002036689244209476</v>
+        <v>2.435694156519637</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.383051522257715</v>
+        <v>2.30129028627882</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1857079660662958</v>
+        <v>-2.162356296873534</v>
       </c>
       <c r="F6" t="n">
-        <v>1.570796385219429</v>
+        <v>0.3724386502694438</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.226157508655536</v>
+        <v>-0.07614184427695789</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.245077479894708</v>
+        <v>1.254043512723122</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4196087999388747</v>
+        <v>0.06105643543779127</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001770765274327443</v>
+        <v>2.338148919411061</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.385026747927482</v>
+        <v>2.278115042058455</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1839986684300178</v>
+        <v>-2.156100336907443</v>
       </c>
       <c r="F7" t="n">
-        <v>1.570796385839804</v>
+        <v>0.2817459490634796</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.151187585216519</v>
+        <v>-0.1484944801829465</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.452590393210493</v>
+        <v>1.463050764843642</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5053030916848213</v>
+        <v>-0.1912147857857812</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001466801171715305</v>
+        <v>2.221381753219332</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.387284527466625</v>
+        <v>2.250372963883986</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1820448576383891</v>
+        <v>-2.148611598977201</v>
       </c>
       <c r="F8" t="n">
-        <v>1.570796386548922</v>
+        <v>0.1731816559416527</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.065493296314505</v>
+        <v>-0.2351046777863454</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.660103306526278</v>
+        <v>1.672058016964162</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5966299285037232</v>
+        <v>-0.4754455585801769</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001142858007795339</v>
+        <v>2.089821673862228</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.389690707147247</v>
+        <v>2.219116317643456</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1799626260718912</v>
+        <v>-2.140174133304963</v>
       </c>
       <c r="F9" t="n">
-        <v>1.57079638730465</v>
+        <v>0.0508636492255905</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.9741664625264626</v>
+        <v>-0.3326872846223134</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.867616219842062</v>
+        <v>1.881065269084682</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6879567653226248</v>
+        <v>-0.7797706602065277</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0008189148438753735</v>
+        <v>1.948960661077793</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.392096886827868</v>
+        <v>2.185649913038036</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1778803945053933</v>
+        <v>-2.131140162166202</v>
       </c>
       <c r="F10" t="n">
-        <v>1.570796388060378</v>
+        <v>-0.0801019019658894</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.8828396287384205</v>
+        <v>-0.4371687116344477</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.075129133157847</v>
+        <v>2.090072521205203</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7736510570685715</v>
+        <v>-1.090946971091774</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005149507412632363</v>
+        <v>1.804928472896228</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.394354666367011</v>
+        <v>2.151430086056778</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1759265837137646</v>
+        <v>-2.121902811068377</v>
       </c>
       <c r="F11" t="n">
-        <v>1.570796388769496</v>
+        <v>-0.2140158540356547</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.7971453398364065</v>
+        <v>-0.5440023078114085</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.282642046473632</v>
+        <v>2.299079773325723</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8486209829956121</v>
+        <v>-1.395272072718124</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0002490267713812027</v>
+        <v>1.664067460111793</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.396329892036778</v>
+        <v>2.117963681451358</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1742172860774866</v>
+        <v>-2.112868839929615</v>
       </c>
       <c r="F12" t="n">
-        <v>1.570796389389871</v>
+        <v>-0.3449814052271343</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.7221754163973895</v>
+        <v>-0.6484837348235425</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.490154959789417</v>
+        <v>2.508087025446243</v>
       </c>
       <c r="B13" t="n">
-        <v>0.908856171011802</v>
+        <v>-1.679502845512521</v>
       </c>
       <c r="C13" t="n">
-        <v>3.536802588044886e-05</v>
+        <v>1.532507380754689</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.397916902936438</v>
+        <v>2.086707035210828</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1728439371882663</v>
+        <v>-2.104431374257377</v>
       </c>
       <c r="F13" t="n">
-        <v>1.570796389888316</v>
+        <v>-0.4672994119431969</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.661940230380222</v>
+        <v>-0.7460663416595109</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.697667873105202</v>
+        <v>2.717094277566763</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9519684220062091</v>
+        <v>-1.931774066736092</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0001175543732445084</v>
+        <v>1.415740214562961</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.399052777406001</v>
+        <v>2.058964957036359</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1718609874546481</v>
+        <v>-2.096942636327136</v>
       </c>
       <c r="F14" t="n">
-        <v>1.570796390245069</v>
+        <v>-0.5758637050650233</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.6188279808165791</v>
+        <v>-0.8326765392629093</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.905180786420986</v>
+        <v>2.926101529687284</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9777324341759148</v>
+        <v>-2.142517008373626</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.0002089412635413557</v>
+        <v>1.318194977454383</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.39973157943981</v>
+        <v>2.035789712815994</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1712735737076268</v>
+        <v>-2.090686676361044</v>
       </c>
       <c r="F15" t="n">
-        <v>1.570796390458266</v>
+        <v>-0.6665564062709881</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.5930639695019023</v>
+        <v>-0.9050291751688987</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.112693699736771</v>
+        <v>3.135108781807804</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9886265273530191</v>
+        <v>-2.305378035023015</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0002475834319855381</v>
+        <v>1.242812535998362</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.400018605100116</v>
+        <v>2.017880007099393</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1710251908062599</v>
+        <v>-2.085852103706613</v>
       </c>
       <c r="F16" t="n">
-        <v>1.570796390548414</v>
+        <v>-0.73664324435553</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.5821698766863396</v>
+        <v>-0.9609429081408227</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.320206613052556</v>
+        <v>3.344116033928324</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9903733673316449</v>
+        <v>-2.418137201784726</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0002537796048658041</v>
+        <v>1.190620421887824</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.40006462893066</v>
+        <v>2.005479965572583</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1709853632432805</v>
+        <v>-2.082504818015383</v>
       </c>
       <c r="F17" t="n">
-        <v>1.570796390562869</v>
+        <v>-0.7851688715480276</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.5804230367656862</v>
+        <v>-0.9996555828068376</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3.553123286048844</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-2.483626852151271</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.160307646411101</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.998278117532702</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-2.080560740421595</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.8133521798316905</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-1.022139604296539</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3.762130538169365</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-2.510650215896646</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.147799514923844</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.995306378362752</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-2.079758544720868</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.8249816172624072</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-1.031417312877579</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3.971137790289885</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-2.514900006965805</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.145832441320895</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.994839032006343</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-2.079632388548868</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.8268105042876539</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-1.032876358592297</v>
       </c>
     </row>
   </sheetData>
